--- a/2022/Symphony/JULY/30.07.2022/MC Bank Statement June-2022.xlsx
+++ b/2022/Symphony/JULY/30.07.2022/MC Bank Statement June-2022.xlsx
@@ -9830,6 +9830,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9846,9 +9849,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -34373,7 +34373,7 @@
   <dimension ref="A1:Y206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
